--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asep/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{14CB90C7-811A-B34E-B547-224FFD645BE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{029CCCFF-3DCE-CF42-889B-9078CD32066A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{4D50ACA6-DD01-C842-A2A1-9814CBDC2A2F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>NIM</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Asep Sholihin</t>
   </si>
   <si>
-    <t>INDEX</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -58,6 +55,21 @@
   </si>
   <si>
     <t>MN104</t>
+  </si>
+  <si>
+    <t>SEMESTER</t>
+  </si>
+  <si>
+    <t>NILAI MUTU</t>
+  </si>
+  <si>
+    <t>DOSEN</t>
+  </si>
+  <si>
+    <t>NIDN DOSEN</t>
+  </si>
+  <si>
+    <t>Afdal Budiman</t>
   </si>
 </sst>
 </file>
@@ -410,19 +422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD70B133-FEAF-6C46-9E7A-29668DB22488}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,39 +446,57 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>70</v>
-      </c>
-      <c r="E2">
-        <v>70</v>
+        <v>334400</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
+      <c r="G2">
+        <v>70</v>
+      </c>
+      <c r="H2">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asep/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asep/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F1E0054-EE78-CA42-ADE8-838B240BC55B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6830C3C-7D8C-6D49-8625-D437AA6D9197}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{4D50ACA6-DD01-C842-A2A1-9814CBDC2A2F}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>02112150055</t>
-  </si>
-  <si>
     <t>MN104</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Sonia</t>
+  </si>
+  <si>
+    <t>02112150054</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,10 +440,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -455,24 +455,24 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>334400</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>70</v>

--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asep/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6830C3C-7D8C-6D49-8625-D437AA6D9197}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CD081BE-F568-644C-903A-09E9B18C25E1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{4D50ACA6-DD01-C842-A2A1-9814CBDC2A2F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>NIM</t>
   </si>
@@ -45,9 +45,6 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>MN104</t>
-  </si>
-  <si>
     <t>SEMESTER</t>
   </si>
   <si>
@@ -57,26 +54,41 @@
     <t>NIDN DOSEN</t>
   </si>
   <si>
-    <t>Afdal Budiman</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>02112150054</t>
+    <t>MN1004</t>
+  </si>
+  <si>
+    <t>Iwan Maulana</t>
+  </si>
+  <si>
+    <t>02112150051</t>
+  </si>
+  <si>
+    <t>Septhio Eko</t>
+  </si>
+  <si>
+    <t>02112150053</t>
+  </si>
+  <si>
+    <t>Imam Maulana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD70B133-FEAF-6C46-9E7A-29668DB22488}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -455,39 +468,69 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>334400</v>
-      </c>
-      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10021</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10021</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>85</v>
+      </c>
+      <c r="H3">
+        <v>85</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asep/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CD081BE-F568-644C-903A-09E9B18C25E1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1AE08CE7-6885-DC47-BBC3-C01B9AB49725}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{4D50ACA6-DD01-C842-A2A1-9814CBDC2A2F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>NIM</t>
   </si>
@@ -54,41 +54,29 @@
     <t>NIDN DOSEN</t>
   </si>
   <si>
+    <t>Afdal Budiman</t>
+  </si>
+  <si>
+    <t>02112150052</t>
+  </si>
+  <si>
+    <t>Rika Nurjanah</t>
+  </si>
+  <si>
     <t>MN1004</t>
-  </si>
-  <si>
-    <t>Iwan Maulana</t>
-  </si>
-  <si>
-    <t>02112150051</t>
-  </si>
-  <si>
-    <t>Septhio Eko</t>
-  </si>
-  <si>
-    <t>02112150053</t>
-  </si>
-  <si>
-    <t>Imam Maulana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,10 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD70B133-FEAF-6C46-9E7A-29668DB22488}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,66 +458,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>10022</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
-        <v>10021</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10021</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>90</v>
-      </c>
-      <c r="G3">
-        <v>85</v>
-      </c>
-      <c r="H3">
-        <v>85</v>
-      </c>
-      <c r="I3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asep/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1AE08CE7-6885-DC47-BBC3-C01B9AB49725}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8D62C9B8-92B3-644A-ACFF-FC31D478E570}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{4D50ACA6-DD01-C842-A2A1-9814CBDC2A2F}"/>
   </bookViews>
